--- a/data/species_awareness_days_wiki.xlsx
+++ b/data/species_awareness_days_wiki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Science\Manuscripts\Documentary analysis\documentary-paper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76641C42-5934-4599-AD40-AA907FC362AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643784AD-7396-4FD9-BC1D-21B5B0E76869}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F7C4FD9-CF48-4E61-A9A8-D885B05DA74B}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>mean</t>
   </si>
   <si>
-    <t>values from PE2</t>
-  </si>
-  <si>
     <t>values from Awareness</t>
+  </si>
+  <si>
+    <t>values from PE2 from 'diff' in master</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,7 +521,7 @@
         <v>1483.25</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -545,7 +545,7 @@
         <v>1071</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
